--- a/extras/mapme.biodiversity_resources.xlsx
+++ b/extras/mapme.biodiversity_resources.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivankaraman/KfW/R/mapme.biodiversity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivankaraman/GitHub/mapme.biodiversity/extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F1F442-4FAB-8B4C-8026-9FD4512BBA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1973726-8A2D-1D4B-B821-35B9338635FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="186">
   <si>
     <t>name</t>
   </si>
@@ -534,9 +534,6 @@
   </si>
   <si>
     <t>c(2000)</t>
-  </si>
-  <si>
-    <t>c(2005)</t>
   </si>
   <si>
     <t>c(2020)</t>
@@ -1084,7 +1081,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -1127,16 +1124,16 @@
         <v>https://data.nhm.ac.uk/dataset/global-map-of-the-biodiversity-intactness-index-from-newbold-et-al-2016-science</v>
       </c>
       <c r="G4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J4">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="K4">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="L4">
         <f>Table3[[#This Row],[years_max]]-Table3[[#This Row],[years_min]]+1</f>
@@ -1202,7 +1199,7 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I6" t="s">
         <v>152</v>
@@ -1277,7 +1274,7 @@
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J8">
         <v>2019</v>
@@ -1313,10 +1310,10 @@
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J9">
         <v>2001</v>
@@ -1352,10 +1349,10 @@
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J10">
         <v>2001</v>
@@ -1391,7 +1388,7 @@
         <v>27</v>
       </c>
       <c r="I11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J11">
         <v>2020</v>
@@ -1672,7 +1669,7 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
         <v>82</v>
@@ -1714,7 +1711,7 @@
         <v>27</v>
       </c>
       <c r="I20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J20">
         <v>2019</v>
@@ -1744,13 +1741,13 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J21">
         <v>2010</v>
@@ -1783,13 +1780,13 @@
         <v>https://www.iucnredlist.org/resources/other-spatial-downloads</v>
       </c>
       <c r="G22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J22">
         <v>2017</v>
@@ -1822,13 +1819,13 @@
         <v>https://www.keybiodiversityareas.org/kba-data</v>
       </c>
       <c r="G23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H23" t="s">
+        <v>177</v>
+      </c>
+      <c r="I23" t="s">
         <v>178</v>
-      </c>
-      <c r="I23" t="s">
-        <v>179</v>
       </c>
       <c r="J23">
         <v>2025</v>
@@ -1857,13 +1854,13 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J24">
         <v>2010</v>
@@ -1898,7 +1895,7 @@
         <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I25" t="s">
         <v>157</v>
@@ -1973,7 +1970,7 @@
         <v>27</v>
       </c>
       <c r="I27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J27">
         <v>2012</v>
@@ -2009,7 +2006,7 @@
         <v>27</v>
       </c>
       <c r="I28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J28">
         <v>2015</v>
@@ -2045,7 +2042,7 @@
         <v>27</v>
       </c>
       <c r="I29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J29">
         <v>2020</v>
@@ -2075,14 +2072,14 @@
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J30">
         <v>2012</v>
@@ -2118,10 +2115,10 @@
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J31">
         <v>1989</v>
@@ -2151,13 +2148,13 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G32" t="s">
         <v>82</v>
       </c>
       <c r="I32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J32">
         <v>2010</v>
@@ -2192,7 +2189,7 @@
         <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J33">
         <v>1960</v>
@@ -2228,7 +2225,7 @@
         <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J34">
         <v>1960</v>
@@ -2264,7 +2261,7 @@
         <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J35">
         <v>1960</v>
@@ -2294,7 +2291,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G36" t="s">
         <v>82</v>
